--- a/키워드/_프로그래밍 키워드 공부.xlsx
+++ b/키워드/_프로그래밍 키워드 공부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoflq\source\repos\Study\키워드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C041E7-1048-40B0-9990-61046FC0FC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481A3384-062C-4644-A7A3-55249692660F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33420" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{D9960176-DCA3-4788-B35E-7B7F0498AADF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9960176-DCA3-4788-B35E-7B7F0498AADF}"/>
   </bookViews>
   <sheets>
     <sheet name="C++" sheetId="1" r:id="rId1"/>
@@ -828,9 +828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CF0020-7488-4BA0-86F1-E70F1B938A04}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/키워드/_프로그래밍 키워드 공부.xlsx
+++ b/키워드/_프로그래밍 키워드 공부.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoflq\source\repos\Study\키워드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481A3384-062C-4644-A7A3-55249692660F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A26BC4-E368-44E5-BCA7-4893AFC7296C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9960176-DCA3-4788-B35E-7B7F0498AADF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9960176-DCA3-4788-B35E-7B7F0498AADF}"/>
   </bookViews>
   <sheets>
     <sheet name="C++" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
   <si>
     <t>변수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,13 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>static(정적) 변수는 
-지역에 선언되어 있을 경우 선언 이후부터 데이터 영역에 할당,
-클래스 멤버인 변수는 클래스 최초 객체가 인스턴스화될 때부터 데이터 영역에 할당됩니다.
-이후 프로그램이 종료할 때까지 메모리에 할당되어 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>동일한 이름으로 다른 파일에 전역변수의 값이 있음을 나타냅니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,23 +195,6 @@
   <si>
     <t>예시로 곱셉, 나눗셈의 경우 덧셈, 뺄셈보다 연산자 우선순위가 높기 때문에 괄호가 없을 경우 우선순위가 높은 연산부터 진행합니다.
 Add(a + 3, b + 4) == a + 3 * b + 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나의 메모리를 공유하는 구조체입니다.
-여러 타입의 변수가 있어도 가장 큰 타입의 변수의 메모리만 할당합니다.
-메모리를 공유하기 때문에 수정 시 값이 덮어써집니다. 즉, 멤버를 하나라도 바꾸면 다른 변수들의 값이 유효해지지 않습니다.
-타입 앞에 union을 붙여 공용체임을 알립니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU가 메모리에 접근하는 것을 최소화해 동작속도를 빠르게 하기 위해, 
-구조체 멤버 중 가장 크기가 큰 것을 기준으로 잡고 그것의 배수로 구조체의 사이즈를 늘려나갑니다.
-그리고 기준보다 작은 멤버들은 패딩비트를 더해 기준과 같게 만들어줍니다.
-예시로, 구조체에 int 타입 변수 하나, char 타입 변수 하나가 있을 경우 5바이트가 아닌 8바이트를 할당합니다.
-이를 구조체 패딩비트가 추가되었기 때문입니다.
-패딩을 풀고 싶을 경우, 즉, 각 변수 사이즈에 맞게 메모리를 할당하기를 원할 경우
-#pragma pack(push, 1) 등으로 읽어들이는 바이트 값을 지정할 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -410,11 +386,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>댕글링 포인터는 포인터가 해제된 메모리 영역을 가리킬 때 발생합니다. 주로 함수 지역공간 내에서 변수를 선언한 뒤 주소값을 리턴하려고 할 때 발생합니다. 지역 스코프를 벗어나며 원본 값은 사라지고, 주소값은 더 이상 유효하지 않은 값을 가리키게 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>발생 이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static(정적) 변수는 
+지역에 선언되어 있을 경우 선언 이후부터 데이터 영역에 할당,
+클래스 멤버인 변수는 프로그램이 시작할 때부터 데이터 영역에 할당됩니다.
+이후 프로그램이 종료할 때까지 메모리에 할당되어 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조체의 기본 패딩비트는 4바이트입니다.
+CPU가 메모리에 접근하는 것을 최소화해 동작속도를 빠르게 하기 위해, 
+구조체 멤버 중 가장 크기가 큰 것을 기준으로 잡고 그것의 배수로 구조체의 사이즈를 늘려나갑니다.
+그리고 기준보다 작은 멤버들은 패딩비트를 더해 기준과 같게 만들어줍니다.
+예시로, 구조체에 int 타입 변수 하나, char 타입 변수 하나가 있을 경우 5바이트가 아닌 8바이트를 할당합니다.
+구조체 패딩비트가 추가되었기 때문입니다.
+패딩을 풀고 싶을 경우, 즉, 각 변수 사이즈에 맞게 메모리를 할당하기를 원할 경우
+#pragma pack(push, 1) 등으로 읽어들이는 바이트 값을 지정할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…................다시 쓰기
+하나의 메모리를 공유하는 구조체입니다.
+여러 타입의 변수가 있어도 가장 큰 타입의 변수의 메모리만 할당합니다.
+메모리를 공유하기 때문에 수정 시 값이 덮어써집니다. 즉, 멤버를 하나라도 바꾸면 다른 변수들의 값이 유효해지지 않습니다.
+타입 앞에 union을 붙여 공용체임을 알립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴파일러는 컴파일 타임에 한 번에 코드를 읽어들이지만,
+인터프리터는 런타임에 한 줄 한 줄 코드를 읽어들입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댕글링 포인터는 포인터가 해제된 메모리 영역을 가리킬 때 발생합니다. 
+주로 함수 지역공간 내에서 변수를 선언한 뒤 주소값을 리턴하려고 할 때 발생합니다. 지역 스코프를 벗어나며 원본 값은 사라지고, 주소값은 더 이상 유효하지 않은 값을 가리키게 됩니다.
+상속 관계의 클래스 간 캐스팅이 실패할 경우에도 발생합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10을 나눈 나머지만큼 스트링에 추가, 10을 나눕니다. 마지막에 스트링을 reverse 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수 포인터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>델리게이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수 템플릿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 템플릿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상속 관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inline 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 은닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡슐화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소소항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운캐스팅 체크 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다형성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오버로딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오버라이딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추상화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모의 특성을 물려받아 재작성 없이 자식 클래스를 정의합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 타입만을 재정의하는 템플릿을 원할 때 사용합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매개변수로 다양한 타입을 받고 싶을 때 사용합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복잡한 함수 호출 과정 없이, 컴파일러가 호출하는 곳 안에 값을 붙여 넣습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스는 클래스 자신관 연관된 동작은 자신 안에서만 정의하고,
+외부에선 노출되지 않게 은폐합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 안에서 사용할 멤버변수와 기능들을 한 데 묶습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매개변수만 다르고 이름은 같은 함수를 다르게 쓸 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상속 관계에서 파생 클래스가 부모의 함수를 재정의합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모 현재 시점에선 구체적인 기능을 정의하지 않고, 특징만 짓습니다.
+구체적인 구현은 자식 클래스들에게 맡깁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암시적 멤버 메서드 6가지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복사 / 이동의 차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l-value, r-value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얕은/깊은 복사의 차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디폴트 생성자 / 파괴자 / 복사 생성자 / 복사 대입 연산자 / 이동 생성자 / 이동 대입 연산자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얕은 복사는 포인터 자체를 복사하고, 깊은 복사는 포인터가 가리키는 값들을 모두 복사한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복사는 복사한 후 변수의 값이 그대로지만, 이동은 복사한 후 변수의 값이 무효화된다(이동된다).
+C++11 이전 l-value는 주소가 있는 값, r-value는 주소가 없는 값
+C++11 이후는 추가 공부 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모 클래스의 함수를 자식 클래스에서 재정의한다.
+동적 할당에서 자식 클래스의 함수 호출 시 부모의 함수를 가리고 자식의 함수를 호출한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상화 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모 클래스에서 virtual 선언
+파생 클래스에서 재정의
+사용하는 곳에서 동적 할당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,7 +1010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -826,25 +1018,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CF0020-7488-4BA0-86F1-E70F1B938A04}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="155.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="117.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="39.625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="21.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="155.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="117.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -855,266 +1047,437 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="165" x14ac:dyDescent="0.3">
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="F12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="F13" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="F14" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="F16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="4" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="4" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="F19" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="F20" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="396" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="396" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+    <row r="23" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="F24" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="4" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
+    <row r="27" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+      <c r="F27" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="F28" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="C43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/키워드/_프로그래밍 키워드 공부.xlsx
+++ b/키워드/_프로그래밍 키워드 공부.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoflq\source\repos\Study\키워드\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\repos\Study\키워드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A26BC4-E368-44E5-BCA7-4893AFC7296C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCD5ECB-3DCF-4D3D-B01B-61F460C13623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9960176-DCA3-4788-B35E-7B7F0498AADF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D9960176-DCA3-4788-B35E-7B7F0498AADF}"/>
   </bookViews>
   <sheets>
     <sheet name="C++" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="177">
   <si>
     <t>변수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +65,6 @@
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힙 설명 부실</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,11 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스택 - 함수 호출 시 함수를 호출한 곳의 위치를 스택에 저장했다가, 함수가 리턴되면 그 직전 함수의 주소를 찾아가기 위함입니다.
-힙 - 동적 할당된 데이터들은 스택처럼 스코프에 영향을 받지 않고, 사용자가 직접 할당 및 해제할 수 있어야 하기 때문입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>동일한 이름으로 다른 파일에 전역변수의 값이 있음을 나타냅니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,27 +179,6 @@
   </si>
   <si>
     <t>동적할당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>malloc, free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴파일 타임이 아닌 런 타임에 메모리를 할당, 해제하기를 원할 때 동적할당을
-동적할당된 데이터는 힙 영역에 쌓이며 사용자가 직접 메모리를 할당, 해제해주어야 합니다.
-힙에 할당된 메모리를 해제하지 않을 경우 메모리 누수가 발생합니다.
-C언어에서는 int* p = (int*)malloc(sizeof(int) * 4); free(p);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new, delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++에서는 int* p = new int; delete p;
-배열은 int* p = new int[5]; delete[] p;
-malloc으로 할당했다면 free, new로 할당했다면 delete로 해제하는 방식으로 짝을 맞추어야 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -390,13 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>static(정적) 변수는 
-지역에 선언되어 있을 경우 선언 이후부터 데이터 영역에 할당,
-클래스 멤버인 변수는 프로그램이 시작할 때부터 데이터 영역에 할당됩니다.
-이후 프로그램이 종료할 때까지 메모리에 할당되어 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구조체의 기본 패딩비트는 4바이트입니다.
 CPU가 메모리에 접근하는 것을 최소화해 동작속도를 빠르게 하기 위해, 
 구조체 멤버 중 가장 크기가 큰 것을 기준으로 잡고 그것의 배수로 구조체의 사이즈를 늘려나갑니다.
@@ -527,10 +479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복잡한 함수 호출 과정 없이, 컴파일러가 호출하는 곳 안에 값을 붙여 넣습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클래스는 클래스 자신관 연관된 동작은 자신 안에서만 정의하고,
 외부에선 노출되지 않게 은폐합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,11 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부모 현재 시점에선 구체적인 기능을 정의하지 않고, 특징만 짓습니다.
-구체적인 구현은 자식 클래스들에게 맡깁니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클래스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,12 +525,6 @@
   </si>
   <si>
     <t>가상함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복사는 복사한 후 변수의 값이 그대로지만, 이동은 복사한 후 변수의 값이 무효화된다(이동된다).
-C++11 이전 l-value는 주소가 있는 값, r-value는 주소가 없는 값
-C++11 이후는 추가 공부 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -607,6 +544,353 @@
     <t>부모 클래스에서 virtual 선언
 파생 클래스에서 재정의
 사용하는 곳에서 동적 할당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택 - 함수 호출 시 함수를 호출한 곳의 위치를 스택에 저장했다가, 함수가 리턴되면 그 직전 함수의 주소를 찾아가기 위함입니다.
+힙 - 힙 영역은 순차적으로 공간을 검색하여 빈 영역을 찾으면, 그 위치에 할당하는 방식이 동적 할당 방식과 맞기 때문입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static(정적) 변수는 
+지역에 선언 경우, 클래스 멤버인 경우 모두 데이터 영역에 할당됩니다.
+다만 지역 선언된 경우 초기화는 데이터 영역 할당 시점에선 기본 값으로 초기화되며,
+선언된 시점에 초기화를 한 번 더 진행합니다.
+이후 프로그램이 종료할 때까지 메모리에 할당되어 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴파일 타임이 아닌 런 타임에 메모리를 할당, 해제하기를 원할 때 동적할당을 사용
+동적할당된 데이터는 힙 영역에 쌓이며 사용자가 직접 메모리를 할당, 해제해주어야 합니다.
+힙에 할당된 메모리를 해제하지 않을 경우 메모리 누수가 발생합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C언어에서는 int* p = (int*)malloc(sizeof(int) * 4); free(p);
+C++에서는 int* p = new int; delete p;
+배열은 int* p = new int[5]; delete[] p;
+malloc으로 할당했다면 free, new로 할당했다면 delete로 해제하는 방식으로 짝을 맞추어야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malloc, free
+new, delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 객체를 다른 객체에 위임하고, 필요한 시점에 메서드 호출만 받는 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수를 등록하기만 하고 이벤트 발생한 시점에 시스템에서 호출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스가 여러 타입으로 변환 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴파일 시점에 클래스 템플릿, 함수 템플릿을 훑고,
+함수 호출 시점에 해당 타입의 템플릿을 구체화하고, 메모리를 할당한다.
+템플릿 정의가 h에 없고 cpp에 있다면, 링크 에러
+구체화 시점에 h에 정의를 찾는데, 없기 때문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복잡한 함수 호출 과정 없이, 
+컴파일러가 호출하는 곳 안에 값을 붙여 넣습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모 현재 시점에선 구체적인 기능을 정의하지 않고, 추상적으로 특징만 짓습니다.
+구체적인 구현은 자식 클래스들에게 맡기며 반드시 정의할 것을 기대합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>람다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1급 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클로저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1급 객체의 조건 3가지
+1. 변수나 데이터에 할당할 수 있어야 한다.
+2. 객체의 인자로 넘길 수 있어야 한다.
+3. 객체의 리턴값으로 리턴할 수 있어야 한다.
+-&gt; 람다가 이에 해당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>익명 함수 람다에 의해 만들어진 실행 시점의 객체
+람다가 클래스라면, 클로저는 인스턴스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호출되는 스코프 범위에 존재하는 변수들을 캡쳐해,
+람다 함수 내에서 사용 가능
+값 캡쳐, 참조 캡쳐 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주의점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선언 시점과 수행 시점이 다르기 때문에
+변수의 수명주기를 고려해 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균적으로 매우 빠른 속도
+분할 정복 기법 사용
+1. 리스트 내부 한 요소 선택 == 피벗
+2. 피벗보다 작은 요소들은 피벗의 왼쪽으로,  큰 요소들은 피벗의 오른쪽으로
+3. 피벗을 제외한 왼쪽 리스트와 오른쪽 리스트에 재귀적으로 다시 피벗 정하고 정렬
+4. 부분 리스트들 분할 불가능할 때까지 반복
+최악 시간복잡도: n^2 --&gt; 모두 정렬되거나 역순으로 정렬된 상황
+평균 시간복잡도: n log(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프러스텀 컬링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼드 트리 or 옥 트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU 자원 아낌
+실외지형 효과적
+차폐물 가려진 오브젝트 컬링 불가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 오브젝트에 대해 뷰프러스텀에 들어가는지 검사 필요 
+-&gt; CPU 자원 오버헤드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오클루전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차폐물 가려진 오브젝트 렌더링 제거
+오클루전 컬링 검사 CPU, GPU 쿨럭 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSP / Portal / PVS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내에 한해 차폐물 컬링 완벽
+닫힌 공간에서만 사용가능용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스턴싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일한 오브젝트를 한 화면에 여러 개 렌더링 시킬 경우,
+한 번의 드로우 콜로 처리하는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ambient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diffuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emissive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 반사광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난반사광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정반사광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발광 물체에서 방출되는 빛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serialization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueprintCallable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루프린트에서 호출 가능하지만, 
+C++ 코드 편집 없이 변경이나 덮어쓰기 불가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueprintImplementableEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수 본문 전적으로 블루프린트에서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueprintNativeEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++ 기본, 블루프린트로 덮어쓰기 가능
+_Implementation 이 붙는 가상함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에만 존재
+게임의 기반 규칙 관련 정보 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버와 클라이언트 모두에 존재
+서버는 GameState 상의 리플리케이티드 변수를 사용하여, 
+모든 클라이언트에서 게임에 대한 데이터를 최신 상태로 유지 가능합니다. (각 팀 점수 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 클라이언트마다 존재
+서버에만 리플리케이트 되므로, 서버는 모든 플레이어에 대한 PlayerController를 갖고 있고,
+로컬 클라이언트는 로컬 플레이어에 대한 PlayerController만 가짐
+클라이언트가 접속되어 있는 도중에는 PlayerController가 존재하여 Pawn에 할당되지만,
+Pawn과 같이 소멸되거나 리스폰되지는 않음.
+다른 클라리언트에 리플리케이트 할 필요 없는 클라이언트와 서버 사이 통신에 적합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 접속된 모든 플레이어에 대해 서버와 클라이언트 양쪽에 존재
+PlayerController와 달리 다른 클라이언트들이 모두 알아야 하는 정보를 저장하는 데 적합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버와 모든 클라이언트에 존재하며, 리플리케이티드 변수 및 이벤트를 가짐
+PlayerController 와 PlayerState : 플레이어가 접속한 시간 동안 게임이 새 레벨을 로드하지 않는 한 계속 존재
+Pawn : 소멸되고 다시 새로운 Pawn으로 할당될 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor Replication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replicates 옵션이 True인 액터는 서버에서 서버에 연결된 클라이언트로 자동으로 동기화됨
+보통 서버 -&gt; 클라이언트로만 리플리케이트 됨.
+Run on server 이벤트 사용 시, 클라이언트 -&gt; 서버로도 리플리케이트 가능하긴 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 상에서 실행 권한 or 클라이언트에서 실행 권한?
+해당 액터를 스폰하는 클라이언트가 해당 액터에 대한 authority를 가진다고 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복사는 복사한 후 변수의 값이 그대로지만, 이동은 복사한 후 변수의 값이 무효화된다(이동된다).
+C++11 이전 Lvalue는 주소가 있는 값, Rvalue는 주소가 없는 값
+C++11 이후 Lvalue는 식별성이 있으면서 move될 수 없는 값, 
+Prvalue는 식별성이 없으면서 move될 수 있는 값
+xvalue는 식별성이 있으면서 move될 수 있는 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔진 세션 도중 유일하게 존재.
+서버와 클라이언트마다 별도의 게임 인스턴스가 존재하고, 서로 영향을 끼치지 않습니다.
+주로 클라이언트, 계정에 관련된 지속성 데이터를 저장하기에 좋습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,7 +1294,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1018,11 +1302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CF0020-7488-4BA0-86F1-E70F1B938A04}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1047,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1067,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="165" x14ac:dyDescent="0.3">
@@ -1075,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1083,401 +1367,643 @@
         <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="280.5" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="396" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>96</v>
+        <v>74</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="165" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
